--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ef650754d540f5c/Documents/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ef650754d540f5c/Documents/Capstone Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="692" documentId="8_{9C353BBF-DA65-4F7D-BA6B-1E484767A853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F19668DD-F5F4-4220-9514-43507D0EFFAA}"/>
+  <xr:revisionPtr revIDLastSave="693" documentId="8_{9C353BBF-DA65-4F7D-BA6B-1E484767A853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29AA5426-9E77-4E3E-867D-C5B2C9E40888}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1305" windowWidth="24240" windowHeight="13020" xr2:uid="{C6DB2F5A-2CF5-43FE-8B26-395719E927D0}"/>
   </bookViews>
@@ -1217,15 +1217,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA81946-D10F-4327-9595-C79DA2DB44E5}">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="41" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="77.85546875" style="5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
